--- a/com/Tools/MyPoco/info_tab/少西道具类型表.xlsx
+++ b/com/Tools/MyPoco/info_tab/少西道具类型表.xlsx
@@ -11830,7 +11830,7 @@
   <dimension ref="A1:P3825"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
